--- a/TemplateExportLibroSoci.xlsx
+++ b/TemplateExportLibroSoci.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C93DF0-8826-1849-BBD8-24623972E7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F743DA85-1628-D446-8F38-61AA25704349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Dati di nascita</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Paese</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
   </si>
 </sst>
 </file>
@@ -94,24 +97,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,7 +132,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -185,11 +192,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -207,19 +229,7 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,6 +237,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,9 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -547,36 +562,37 @@
     <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="13" max="13" width="23.1640625" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="11" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
+    <row r="1" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:17" ht="18.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H3" s="9" t="s">
+    <row r="2" spans="1:18" ht="18.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="M3" s="12" t="s">
+      <c r="L3" s="11"/>
+      <c r="N3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="10"/>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -598,42 +614,45 @@
       <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
